--- a/biology/Zoologie/Conure/Conure.xlsx
+++ b/biology/Zoologie/Conure/Conure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous le terme de Conure sont regroupés des perroquets et des perruches (famille des Psittacidae et sous-famille des Psittacinae) de taille petite à moyenne appartenant à plusieurs genres néotropicaux[1]. Le terme conure dérive du genre Conurus tombé en désuétude.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le terme de Conure sont regroupés des perroquets et des perruches (famille des Psittacidae et sous-famille des Psittacinae) de taille petite à moyenne appartenant à plusieurs genres néotropicaux. Le terme conure dérive du genre Conurus tombé en désuétude.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les conures sont des perroquets  plutôt sveltes avec des ailes pointues et une queue longue et pointue. Les battements d'ailes relevées au-dessus du corps sont assez puissants. La distinction des espèces au sein de certains genres (notamment Aratinga et Pyrrhura) est parfois délicate en raison de très fortes similitudes.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aratinga
 Conuropsis (genre éteint)
@@ -584,7 +600,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Conure à cape noire – Pyrrhura rupicola
 Conure à col blanc – Pyrrhura albipectus
